--- a/documentos/modelos finales/Modelos Datos fijos.xlsx
+++ b/documentos/modelos finales/Modelos Datos fijos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\modelos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE5D8C1-5FAF-469B-B3BB-D11E24B05458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC3B8C2-65C8-432F-9BC7-BE37E759DAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E66E99B-3367-44EE-9783-6944D3DEB6D9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
   <si>
     <t>LIBRO DE SUELDOS DIGITAL - AFIP</t>
   </si>
@@ -298,9 +298,6 @@
     <t>BEUVAIS MARIO</t>
   </si>
   <si>
-    <t>art17 trab temp</t>
-  </si>
-  <si>
     <t>CAPATAZ</t>
   </si>
   <si>
@@ -314,6 +311,45 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0070071930004073398933</t>
+  </si>
+  <si>
+    <t>0070071930004073399776</t>
+  </si>
+  <si>
+    <t>0070071930004073387328</t>
+  </si>
+  <si>
+    <t>0070071930004073388161</t>
+  </si>
+  <si>
+    <t>0070071930004073389102</t>
+  </si>
+  <si>
+    <t>0070071930004073390342</t>
+  </si>
+  <si>
+    <t>0070071930004073396265</t>
+  </si>
+  <si>
+    <t>0070071930004073411115</t>
+  </si>
+  <si>
+    <t>0070071930004073395422</t>
+  </si>
+  <si>
+    <t>0070071930004073391185</t>
+  </si>
+  <si>
+    <t>0070071930004073394696</t>
+  </si>
+  <si>
+    <t>0070071930004073393853</t>
+  </si>
+  <si>
+    <t>0070071930004073392126</t>
   </si>
 </sst>
 </file>
@@ -599,6 +635,25 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,25 +664,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -946,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83205A9D-0CEA-4714-8546-E299B9B69775}">
   <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,6 +992,7 @@
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" customWidth="1"/>
     <col min="15" max="15" width="26.140625" customWidth="1"/>
   </cols>
@@ -1094,50 +1131,50 @@
       </c>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
-        <v>1</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36">
         <v>4</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
     </row>
     <row r="4" spans="1:38" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1409,107 +1446,109 @@
       <c r="C7" s="22">
         <v>23373230529</v>
       </c>
-      <c r="D7" s="31">
-        <v>30</v>
-      </c>
-      <c r="E7" s="32">
+      <c r="D7" s="28">
+        <v>30</v>
+      </c>
+      <c r="E7" s="29">
         <v>31</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33">
-        <v>30</v>
-      </c>
-      <c r="I7" s="33">
-        <v>1</v>
-      </c>
-      <c r="J7" s="33">
-        <v>0</v>
-      </c>
-      <c r="K7" s="33">
-        <v>0</v>
-      </c>
-      <c r="L7" s="33">
-        <v>0</v>
-      </c>
-      <c r="M7" s="33">
-        <v>0</v>
-      </c>
-      <c r="N7" s="33">
-        <v>1</v>
-      </c>
-      <c r="O7" s="33">
-        <v>1</v>
-      </c>
-      <c r="P7" s="33">
+        <v>82</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="30">
+        <v>30</v>
+      </c>
+      <c r="I7" s="30">
+        <v>3</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="30">
+        <v>0</v>
+      </c>
+      <c r="M7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="30">
+        <v>1</v>
+      </c>
+      <c r="O7" s="30">
+        <v>1</v>
+      </c>
+      <c r="P7" s="30">
         <v>5</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="30">
         <v>97</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="30">
         <v>111</v>
       </c>
-      <c r="S7" s="33">
-        <v>0</v>
-      </c>
-      <c r="T7" s="33">
+      <c r="S7" s="30">
+        <v>0</v>
+      </c>
+      <c r="T7" s="30">
         <v>27</v>
       </c>
-      <c r="U7" s="33">
-        <v>1</v>
-      </c>
-      <c r="V7" s="33">
-        <v>1</v>
-      </c>
-      <c r="W7" s="33">
-        <v>0</v>
-      </c>
-      <c r="X7" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="33">
+      <c r="U7" s="30">
+        <v>1</v>
+      </c>
+      <c r="V7" s="30">
+        <v>1</v>
+      </c>
+      <c r="W7" s="30">
+        <v>0</v>
+      </c>
+      <c r="X7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="30">
         <v>2</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="30">
         <v>119302</v>
       </c>
-      <c r="AF7" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="34">
+      <c r="AF7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1520,107 +1559,109 @@
       <c r="C8" s="22">
         <v>20412270089</v>
       </c>
-      <c r="D8" s="31">
-        <v>30</v>
-      </c>
-      <c r="E8" s="32">
+      <c r="D8" s="28">
+        <v>30</v>
+      </c>
+      <c r="E8" s="29">
         <v>32</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="33">
-        <v>30</v>
-      </c>
-      <c r="I8" s="33">
-        <v>1</v>
-      </c>
-      <c r="J8" s="33">
-        <v>0</v>
-      </c>
-      <c r="K8" s="33">
-        <v>0</v>
-      </c>
-      <c r="L8" s="33">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33">
-        <v>0</v>
-      </c>
-      <c r="N8" s="33">
-        <v>1</v>
-      </c>
-      <c r="O8" s="33">
-        <v>1</v>
-      </c>
-      <c r="P8" s="33">
+        <v>82</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="30">
+        <v>30</v>
+      </c>
+      <c r="I8" s="30">
+        <v>3</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="30">
+        <v>0</v>
+      </c>
+      <c r="L8" s="30">
+        <v>0</v>
+      </c>
+      <c r="M8" s="30">
+        <v>0</v>
+      </c>
+      <c r="N8" s="30">
+        <v>1</v>
+      </c>
+      <c r="O8" s="30">
+        <v>1</v>
+      </c>
+      <c r="P8" s="30">
         <v>5</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="30">
         <v>97</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="32">
         <v>111</v>
       </c>
-      <c r="S8" s="33">
-        <v>0</v>
-      </c>
-      <c r="T8" s="33">
+      <c r="S8" s="30">
+        <v>0</v>
+      </c>
+      <c r="T8" s="30">
         <v>27</v>
       </c>
-      <c r="U8" s="33">
-        <v>1</v>
-      </c>
-      <c r="V8" s="33">
-        <v>1</v>
-      </c>
-      <c r="W8" s="33">
-        <v>0</v>
-      </c>
-      <c r="X8" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="33">
+      <c r="U8" s="30">
+        <v>1</v>
+      </c>
+      <c r="V8" s="30">
+        <v>1</v>
+      </c>
+      <c r="W8" s="30">
+        <v>0</v>
+      </c>
+      <c r="X8" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="30">
         <v>2</v>
       </c>
-      <c r="AE8" s="33">
+      <c r="AE8" s="30">
         <v>119302</v>
       </c>
-      <c r="AF8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="34">
+      <c r="AF8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1631,107 +1672,109 @@
       <c r="C9" s="22">
         <v>20363899952</v>
       </c>
-      <c r="D9" s="31">
-        <v>30</v>
-      </c>
-      <c r="E9" s="32">
+      <c r="D9" s="28">
+        <v>30</v>
+      </c>
+      <c r="E9" s="29">
         <v>51</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="33">
-        <v>30</v>
-      </c>
-      <c r="I9" s="33">
-        <v>1</v>
-      </c>
-      <c r="J9" s="33">
-        <v>0</v>
-      </c>
-      <c r="K9" s="33">
-        <v>0</v>
-      </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
-      <c r="M9" s="33">
-        <v>0</v>
-      </c>
-      <c r="N9" s="33">
-        <v>1</v>
-      </c>
-      <c r="O9" s="33">
-        <v>1</v>
-      </c>
-      <c r="P9" s="33">
+        <v>82</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="30">
+        <v>30</v>
+      </c>
+      <c r="I9" s="30">
+        <v>3</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30">
+        <v>0</v>
+      </c>
+      <c r="M9" s="30">
+        <v>0</v>
+      </c>
+      <c r="N9" s="30">
+        <v>1</v>
+      </c>
+      <c r="O9" s="30">
+        <v>1</v>
+      </c>
+      <c r="P9" s="30">
         <v>5</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="30">
         <v>97</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="32">
         <v>111</v>
       </c>
-      <c r="S9" s="33">
-        <v>0</v>
-      </c>
-      <c r="T9" s="33">
+      <c r="S9" s="30">
+        <v>0</v>
+      </c>
+      <c r="T9" s="30">
         <v>27</v>
       </c>
-      <c r="U9" s="33">
-        <v>1</v>
-      </c>
-      <c r="V9" s="33">
-        <v>1</v>
-      </c>
-      <c r="W9" s="33">
-        <v>0</v>
-      </c>
-      <c r="X9" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="33">
+      <c r="U9" s="30">
+        <v>1</v>
+      </c>
+      <c r="V9" s="30">
+        <v>1</v>
+      </c>
+      <c r="W9" s="30">
+        <v>0</v>
+      </c>
+      <c r="X9" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="30">
         <v>2</v>
       </c>
-      <c r="AE9" s="33">
+      <c r="AE9" s="30">
         <v>119302</v>
       </c>
-      <c r="AF9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="34">
+      <c r="AF9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1742,107 +1785,109 @@
       <c r="C10" s="22">
         <v>20280474682</v>
       </c>
-      <c r="D10" s="31">
-        <v>30</v>
-      </c>
-      <c r="E10" s="32">
+      <c r="D10" s="28">
+        <v>30</v>
+      </c>
+      <c r="E10" s="29">
         <v>4</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="33">
-        <v>30</v>
-      </c>
-      <c r="I10" s="33">
-        <v>1</v>
-      </c>
-      <c r="J10" s="33">
-        <v>0</v>
-      </c>
-      <c r="K10" s="33">
-        <v>0</v>
-      </c>
-      <c r="L10" s="33">
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
-        <v>0</v>
-      </c>
-      <c r="N10" s="33">
-        <v>1</v>
-      </c>
-      <c r="O10" s="33">
-        <v>1</v>
-      </c>
-      <c r="P10" s="33">
+      <c r="F10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="30">
+        <v>30</v>
+      </c>
+      <c r="I10" s="30">
+        <v>3</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0</v>
+      </c>
+      <c r="K10" s="30">
+        <v>0</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0</v>
+      </c>
+      <c r="M10" s="30">
+        <v>0</v>
+      </c>
+      <c r="N10" s="30">
+        <v>1</v>
+      </c>
+      <c r="O10" s="30">
+        <v>1</v>
+      </c>
+      <c r="P10" s="30">
         <v>5</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="30">
         <v>97</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10" s="32">
         <v>110</v>
       </c>
-      <c r="S10" s="33">
-        <v>0</v>
-      </c>
-      <c r="T10" s="33">
+      <c r="S10" s="30">
+        <v>0</v>
+      </c>
+      <c r="T10" s="30">
         <v>27</v>
       </c>
-      <c r="U10" s="33">
-        <v>1</v>
-      </c>
-      <c r="V10" s="33">
-        <v>1</v>
-      </c>
-      <c r="W10" s="33">
-        <v>0</v>
-      </c>
-      <c r="X10" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB10" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="33">
+      <c r="U10" s="30">
+        <v>1</v>
+      </c>
+      <c r="V10" s="30">
+        <v>1</v>
+      </c>
+      <c r="W10" s="30">
+        <v>0</v>
+      </c>
+      <c r="X10" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="30">
         <v>2</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AE10" s="30">
         <v>119302</v>
       </c>
-      <c r="AF10" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="34">
+      <c r="AF10" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1853,107 +1898,109 @@
       <c r="C11" s="22">
         <v>20177508293</v>
       </c>
-      <c r="D11" s="31">
-        <v>30</v>
-      </c>
-      <c r="E11" s="32">
+      <c r="D11" s="28">
+        <v>30</v>
+      </c>
+      <c r="E11" s="29">
         <v>17</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33">
-        <v>30</v>
-      </c>
-      <c r="I11" s="33">
-        <v>1</v>
-      </c>
-      <c r="J11" s="33">
-        <v>0</v>
-      </c>
-      <c r="K11" s="33">
-        <v>0</v>
-      </c>
-      <c r="L11" s="33">
-        <v>0</v>
-      </c>
-      <c r="M11" s="33">
-        <v>0</v>
-      </c>
-      <c r="N11" s="33">
-        <v>1</v>
-      </c>
-      <c r="O11" s="33">
-        <v>1</v>
-      </c>
-      <c r="P11" s="33">
+      <c r="F11" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="30">
+        <v>30</v>
+      </c>
+      <c r="I11" s="30">
+        <v>3</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+      <c r="K11" s="30">
+        <v>0</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0</v>
+      </c>
+      <c r="M11" s="30">
+        <v>0</v>
+      </c>
+      <c r="N11" s="30">
+        <v>1</v>
+      </c>
+      <c r="O11" s="30">
+        <v>1</v>
+      </c>
+      <c r="P11" s="30">
         <v>5</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="30">
         <v>97</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11" s="32">
         <v>110</v>
       </c>
-      <c r="S11" s="33">
-        <v>0</v>
-      </c>
-      <c r="T11" s="33">
+      <c r="S11" s="30">
+        <v>0</v>
+      </c>
+      <c r="T11" s="30">
         <v>27</v>
       </c>
-      <c r="U11" s="33">
-        <v>1</v>
-      </c>
-      <c r="V11" s="33">
-        <v>1</v>
-      </c>
-      <c r="W11" s="33">
-        <v>0</v>
-      </c>
-      <c r="X11" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB11" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="33">
+      <c r="U11" s="30">
+        <v>1</v>
+      </c>
+      <c r="V11" s="30">
+        <v>1</v>
+      </c>
+      <c r="W11" s="30">
+        <v>0</v>
+      </c>
+      <c r="X11" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="30">
         <v>2</v>
       </c>
-      <c r="AE11" s="33">
+      <c r="AE11" s="30">
         <v>119302</v>
       </c>
-      <c r="AF11" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="34">
+      <c r="AF11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1964,107 +2011,109 @@
       <c r="C12" s="22">
         <v>20215465676</v>
       </c>
-      <c r="D12" s="31">
-        <v>30</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="D12" s="28">
+        <v>30</v>
+      </c>
+      <c r="E12" s="29">
         <v>22</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33">
-        <v>30</v>
-      </c>
-      <c r="I12" s="33">
-        <v>1</v>
-      </c>
-      <c r="J12" s="33">
-        <v>0</v>
-      </c>
-      <c r="K12" s="33">
-        <v>0</v>
-      </c>
-      <c r="L12" s="33">
-        <v>0</v>
-      </c>
-      <c r="M12" s="33">
-        <v>0</v>
-      </c>
-      <c r="N12" s="33">
-        <v>1</v>
-      </c>
-      <c r="O12" s="33">
-        <v>1</v>
-      </c>
-      <c r="P12" s="33">
+      <c r="F12" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="30">
+        <v>30</v>
+      </c>
+      <c r="I12" s="30">
+        <v>3</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0</v>
+      </c>
+      <c r="K12" s="30">
+        <v>0</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0</v>
+      </c>
+      <c r="M12" s="30">
+        <v>0</v>
+      </c>
+      <c r="N12" s="30">
+        <v>1</v>
+      </c>
+      <c r="O12" s="30">
+        <v>1</v>
+      </c>
+      <c r="P12" s="30">
         <v>5</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="30">
         <v>97</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12" s="32">
         <v>110</v>
       </c>
-      <c r="S12" s="33">
-        <v>0</v>
-      </c>
-      <c r="T12" s="33">
+      <c r="S12" s="30">
+        <v>0</v>
+      </c>
+      <c r="T12" s="30">
         <v>27</v>
       </c>
-      <c r="U12" s="33">
-        <v>1</v>
-      </c>
-      <c r="V12" s="33">
-        <v>1</v>
-      </c>
-      <c r="W12" s="33">
-        <v>0</v>
-      </c>
-      <c r="X12" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB12" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="33">
+      <c r="U12" s="30">
+        <v>1</v>
+      </c>
+      <c r="V12" s="30">
+        <v>1</v>
+      </c>
+      <c r="W12" s="30">
+        <v>0</v>
+      </c>
+      <c r="X12" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB12" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="30">
         <v>2</v>
       </c>
-      <c r="AE12" s="33">
+      <c r="AE12" s="30">
         <v>119302</v>
       </c>
-      <c r="AF12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="34">
+      <c r="AF12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2075,107 +2124,109 @@
       <c r="C13" s="23">
         <v>20302390224</v>
       </c>
-      <c r="D13" s="31">
-        <v>30</v>
-      </c>
-      <c r="E13" s="32">
+      <c r="D13" s="28">
+        <v>30</v>
+      </c>
+      <c r="E13" s="29">
         <v>41</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="33">
-        <v>30</v>
-      </c>
-      <c r="I13" s="33">
-        <v>1</v>
-      </c>
-      <c r="J13" s="33">
-        <v>0</v>
-      </c>
-      <c r="K13" s="33">
-        <v>0</v>
-      </c>
-      <c r="L13" s="33">
-        <v>0</v>
-      </c>
-      <c r="M13" s="33">
-        <v>0</v>
-      </c>
-      <c r="N13" s="33">
-        <v>1</v>
-      </c>
-      <c r="O13" s="33">
-        <v>1</v>
-      </c>
-      <c r="P13" s="33">
+      <c r="F13" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="30">
+        <v>30</v>
+      </c>
+      <c r="I13" s="30">
+        <v>3</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="30">
+        <v>0</v>
+      </c>
+      <c r="L13" s="30">
+        <v>0</v>
+      </c>
+      <c r="M13" s="30">
+        <v>0</v>
+      </c>
+      <c r="N13" s="30">
+        <v>1</v>
+      </c>
+      <c r="O13" s="30">
+        <v>1</v>
+      </c>
+      <c r="P13" s="30">
         <v>5</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="30">
         <v>97</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="32">
         <v>110</v>
       </c>
-      <c r="S13" s="33">
-        <v>0</v>
-      </c>
-      <c r="T13" s="33">
+      <c r="S13" s="30">
+        <v>0</v>
+      </c>
+      <c r="T13" s="30">
         <v>27</v>
       </c>
-      <c r="U13" s="33">
-        <v>1</v>
-      </c>
-      <c r="V13" s="33">
-        <v>1</v>
-      </c>
-      <c r="W13" s="33">
-        <v>0</v>
-      </c>
-      <c r="X13" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="33">
+      <c r="U13" s="30">
+        <v>1</v>
+      </c>
+      <c r="V13" s="30">
+        <v>1</v>
+      </c>
+      <c r="W13" s="30">
+        <v>0</v>
+      </c>
+      <c r="X13" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="30">
         <v>2</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AE13" s="30">
         <v>119302</v>
       </c>
-      <c r="AF13" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="34">
+      <c r="AF13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2186,107 +2237,109 @@
       <c r="C14" s="22">
         <v>20397771262</v>
       </c>
-      <c r="D14" s="31">
-        <v>30</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="D14" s="28">
+        <v>30</v>
+      </c>
+      <c r="E14" s="29">
         <v>55</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="33">
-        <v>30</v>
-      </c>
-      <c r="I14" s="33">
-        <v>1</v>
-      </c>
-      <c r="J14" s="33">
-        <v>0</v>
-      </c>
-      <c r="K14" s="33">
-        <v>0</v>
-      </c>
-      <c r="L14" s="33">
-        <v>0</v>
-      </c>
-      <c r="M14" s="33">
-        <v>0</v>
-      </c>
-      <c r="N14" s="33">
-        <v>1</v>
-      </c>
-      <c r="O14" s="33">
-        <v>1</v>
-      </c>
-      <c r="P14" s="33">
+      <c r="F14" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="30">
+        <v>30</v>
+      </c>
+      <c r="I14" s="30">
+        <v>3</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="30">
+        <v>0</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="30">
+        <v>1</v>
+      </c>
+      <c r="O14" s="30">
+        <v>1</v>
+      </c>
+      <c r="P14" s="30">
         <v>5</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="30">
         <v>97</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14" s="32">
         <v>110</v>
       </c>
-      <c r="S14" s="33">
-        <v>0</v>
-      </c>
-      <c r="T14" s="33">
+      <c r="S14" s="30">
+        <v>0</v>
+      </c>
+      <c r="T14" s="30">
         <v>27</v>
       </c>
-      <c r="U14" s="33">
-        <v>1</v>
-      </c>
-      <c r="V14" s="33">
-        <v>1</v>
-      </c>
-      <c r="W14" s="33">
-        <v>0</v>
-      </c>
-      <c r="X14" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB14" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="33">
+      <c r="U14" s="30">
+        <v>1</v>
+      </c>
+      <c r="V14" s="30">
+        <v>1</v>
+      </c>
+      <c r="W14" s="30">
+        <v>0</v>
+      </c>
+      <c r="X14" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="30">
         <v>2</v>
       </c>
-      <c r="AE14" s="33">
+      <c r="AE14" s="30">
         <v>119302</v>
       </c>
-      <c r="AF14" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="34">
+      <c r="AF14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2297,107 +2350,109 @@
       <c r="C15" s="22">
         <v>20222706042</v>
       </c>
-      <c r="D15" s="31">
-        <v>30</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="D15" s="28">
+        <v>30</v>
+      </c>
+      <c r="E15" s="29">
         <v>35</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="33">
-        <v>30</v>
-      </c>
-      <c r="I15" s="33">
-        <v>1</v>
-      </c>
-      <c r="J15" s="33">
-        <v>0</v>
-      </c>
-      <c r="K15" s="33">
-        <v>0</v>
-      </c>
-      <c r="L15" s="33">
-        <v>0</v>
-      </c>
-      <c r="M15" s="33">
-        <v>0</v>
-      </c>
-      <c r="N15" s="33">
-        <v>1</v>
-      </c>
-      <c r="O15" s="33">
-        <v>1</v>
-      </c>
-      <c r="P15" s="33">
+      <c r="F15" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="30">
+        <v>30</v>
+      </c>
+      <c r="I15" s="30">
+        <v>3</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0</v>
+      </c>
+      <c r="K15" s="30">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30">
+        <v>0</v>
+      </c>
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="30">
+        <v>1</v>
+      </c>
+      <c r="O15" s="30">
+        <v>1</v>
+      </c>
+      <c r="P15" s="30">
         <v>5</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="30">
         <v>97</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="32">
         <v>110</v>
       </c>
-      <c r="S15" s="33">
-        <v>0</v>
-      </c>
-      <c r="T15" s="33">
+      <c r="S15" s="30">
+        <v>0</v>
+      </c>
+      <c r="T15" s="30">
         <v>27</v>
       </c>
-      <c r="U15" s="33">
-        <v>1</v>
-      </c>
-      <c r="V15" s="33">
-        <v>1</v>
-      </c>
-      <c r="W15" s="33">
-        <v>0</v>
-      </c>
-      <c r="X15" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB15" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="33">
+      <c r="U15" s="30">
+        <v>1</v>
+      </c>
+      <c r="V15" s="30">
+        <v>1</v>
+      </c>
+      <c r="W15" s="30">
+        <v>0</v>
+      </c>
+      <c r="X15" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="30">
         <v>2</v>
       </c>
-      <c r="AE15" s="33">
+      <c r="AE15" s="30">
         <v>119302</v>
       </c>
-      <c r="AF15" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="34">
+      <c r="AF15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2408,107 +2463,109 @@
       <c r="C16" s="22">
         <v>20146494669</v>
       </c>
-      <c r="D16" s="31">
-        <v>30</v>
-      </c>
-      <c r="E16" s="32">
+      <c r="D16" s="28">
+        <v>30</v>
+      </c>
+      <c r="E16" s="29">
         <v>44</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33">
-        <v>30</v>
-      </c>
-      <c r="I16" s="33">
-        <v>1</v>
-      </c>
-      <c r="J16" s="33">
-        <v>0</v>
-      </c>
-      <c r="K16" s="33">
-        <v>0</v>
-      </c>
-      <c r="L16" s="33">
-        <v>0</v>
-      </c>
-      <c r="M16" s="33">
-        <v>0</v>
-      </c>
-      <c r="N16" s="33">
-        <v>1</v>
-      </c>
-      <c r="O16" s="33">
-        <v>1</v>
-      </c>
-      <c r="P16" s="33">
+      <c r="F16" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="30">
+        <v>30</v>
+      </c>
+      <c r="I16" s="30">
+        <v>3</v>
+      </c>
+      <c r="J16" s="30">
+        <v>0</v>
+      </c>
+      <c r="K16" s="30">
+        <v>0</v>
+      </c>
+      <c r="L16" s="30">
+        <v>0</v>
+      </c>
+      <c r="M16" s="30">
+        <v>0</v>
+      </c>
+      <c r="N16" s="30">
+        <v>1</v>
+      </c>
+      <c r="O16" s="30">
+        <v>1</v>
+      </c>
+      <c r="P16" s="30">
         <v>5</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="30">
         <v>97</v>
       </c>
-      <c r="R16" s="35">
+      <c r="R16" s="32">
         <v>110</v>
       </c>
-      <c r="S16" s="33">
-        <v>0</v>
-      </c>
-      <c r="T16" s="33">
+      <c r="S16" s="30">
+        <v>0</v>
+      </c>
+      <c r="T16" s="30">
         <v>27</v>
       </c>
-      <c r="U16" s="33">
-        <v>1</v>
-      </c>
-      <c r="V16" s="33">
-        <v>1</v>
-      </c>
-      <c r="W16" s="33">
-        <v>0</v>
-      </c>
-      <c r="X16" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB16" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="33">
+      <c r="U16" s="30">
+        <v>1</v>
+      </c>
+      <c r="V16" s="30">
+        <v>1</v>
+      </c>
+      <c r="W16" s="30">
+        <v>0</v>
+      </c>
+      <c r="X16" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="30">
         <v>2</v>
       </c>
-      <c r="AE16" s="33">
+      <c r="AE16" s="30">
         <v>119302</v>
       </c>
-      <c r="AF16" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="34">
+      <c r="AF16" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2519,107 +2576,109 @@
       <c r="C17" s="22">
         <v>20260202031</v>
       </c>
-      <c r="D17" s="31">
-        <v>30</v>
-      </c>
-      <c r="E17" s="32">
+      <c r="D17" s="28">
+        <v>30</v>
+      </c>
+      <c r="E17" s="29">
         <v>46</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33">
-        <v>30</v>
-      </c>
-      <c r="I17" s="33">
-        <v>1</v>
-      </c>
-      <c r="J17" s="33">
-        <v>0</v>
-      </c>
-      <c r="K17" s="33">
-        <v>0</v>
-      </c>
-      <c r="L17" s="33">
-        <v>0</v>
-      </c>
-      <c r="M17" s="33">
-        <v>0</v>
-      </c>
-      <c r="N17" s="33">
-        <v>1</v>
-      </c>
-      <c r="O17" s="33">
-        <v>1</v>
-      </c>
-      <c r="P17" s="33">
+      <c r="F17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="30">
+        <v>30</v>
+      </c>
+      <c r="I17" s="30">
+        <v>3</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0</v>
+      </c>
+      <c r="K17" s="30">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30">
+        <v>0</v>
+      </c>
+      <c r="M17" s="30">
+        <v>0</v>
+      </c>
+      <c r="N17" s="30">
+        <v>1</v>
+      </c>
+      <c r="O17" s="30">
+        <v>1</v>
+      </c>
+      <c r="P17" s="30">
         <v>5</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="30">
         <v>97</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="32">
         <v>110</v>
       </c>
-      <c r="S17" s="33">
-        <v>0</v>
-      </c>
-      <c r="T17" s="33">
+      <c r="S17" s="30">
+        <v>0</v>
+      </c>
+      <c r="T17" s="30">
         <v>27</v>
       </c>
-      <c r="U17" s="33">
-        <v>1</v>
-      </c>
-      <c r="V17" s="33">
-        <v>1</v>
-      </c>
-      <c r="W17" s="33">
-        <v>0</v>
-      </c>
-      <c r="X17" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB17" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="33">
+      <c r="U17" s="30">
+        <v>1</v>
+      </c>
+      <c r="V17" s="30">
+        <v>1</v>
+      </c>
+      <c r="W17" s="30">
+        <v>0</v>
+      </c>
+      <c r="X17" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="30">
         <v>2</v>
       </c>
-      <c r="AE17" s="33">
+      <c r="AE17" s="30">
         <v>119302</v>
       </c>
-      <c r="AF17" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="34">
+      <c r="AF17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2630,107 +2689,109 @@
       <c r="C18" s="22">
         <v>20229337700</v>
       </c>
-      <c r="D18" s="31">
-        <v>30</v>
-      </c>
-      <c r="E18" s="32">
+      <c r="D18" s="28">
+        <v>30</v>
+      </c>
+      <c r="E18" s="29">
         <v>52</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33">
-        <v>30</v>
-      </c>
-      <c r="I18" s="33">
-        <v>1</v>
-      </c>
-      <c r="J18" s="33">
-        <v>0</v>
-      </c>
-      <c r="K18" s="33">
-        <v>0</v>
-      </c>
-      <c r="L18" s="33">
-        <v>0</v>
-      </c>
-      <c r="M18" s="33">
-        <v>0</v>
-      </c>
-      <c r="N18" s="33">
-        <v>1</v>
-      </c>
-      <c r="O18" s="33">
-        <v>1</v>
-      </c>
-      <c r="P18" s="33">
+      <c r="F18" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="30">
+        <v>30</v>
+      </c>
+      <c r="I18" s="30">
+        <v>3</v>
+      </c>
+      <c r="J18" s="30">
+        <v>0</v>
+      </c>
+      <c r="K18" s="30">
+        <v>0</v>
+      </c>
+      <c r="L18" s="30">
+        <v>0</v>
+      </c>
+      <c r="M18" s="30">
+        <v>0</v>
+      </c>
+      <c r="N18" s="30">
+        <v>1</v>
+      </c>
+      <c r="O18" s="30">
+        <v>1</v>
+      </c>
+      <c r="P18" s="30">
         <v>5</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="30">
         <v>97</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="32">
         <v>110</v>
       </c>
-      <c r="S18" s="33">
-        <v>0</v>
-      </c>
-      <c r="T18" s="33">
+      <c r="S18" s="30">
+        <v>0</v>
+      </c>
+      <c r="T18" s="30">
         <v>27</v>
       </c>
-      <c r="U18" s="33">
-        <v>1</v>
-      </c>
-      <c r="V18" s="33">
-        <v>1</v>
-      </c>
-      <c r="W18" s="33">
-        <v>0</v>
-      </c>
-      <c r="X18" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB18" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="33">
+      <c r="U18" s="30">
+        <v>1</v>
+      </c>
+      <c r="V18" s="30">
+        <v>1</v>
+      </c>
+      <c r="W18" s="30">
+        <v>0</v>
+      </c>
+      <c r="X18" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="30">
         <v>2</v>
       </c>
-      <c r="AE18" s="33">
+      <c r="AE18" s="30">
         <v>119302</v>
       </c>
-      <c r="AF18" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="34">
+      <c r="AF18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2741,113 +2802,115 @@
       <c r="C19" s="22">
         <v>20179209927</v>
       </c>
-      <c r="D19" s="31">
-        <v>30</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="D19" s="28">
+        <v>30</v>
+      </c>
+      <c r="E19" s="29">
         <v>56</v>
       </c>
-      <c r="F19" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="33">
-        <v>30</v>
-      </c>
-      <c r="I19" s="33">
-        <v>1</v>
-      </c>
-      <c r="J19" s="33">
-        <v>0</v>
-      </c>
-      <c r="K19" s="33">
-        <v>0</v>
-      </c>
-      <c r="L19" s="33">
-        <v>0</v>
-      </c>
-      <c r="M19" s="33">
-        <v>0</v>
-      </c>
-      <c r="N19" s="33">
-        <v>1</v>
-      </c>
-      <c r="O19" s="33">
-        <v>1</v>
-      </c>
-      <c r="P19" s="33">
+      <c r="F19" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="30">
+        <v>30</v>
+      </c>
+      <c r="I19" s="30">
+        <v>3</v>
+      </c>
+      <c r="J19" s="30">
+        <v>0</v>
+      </c>
+      <c r="K19" s="30">
+        <v>0</v>
+      </c>
+      <c r="L19" s="30">
+        <v>0</v>
+      </c>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30">
+        <v>1</v>
+      </c>
+      <c r="O19" s="30">
+        <v>1</v>
+      </c>
+      <c r="P19" s="30">
         <v>5</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="30">
         <v>97</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="32">
         <v>110</v>
       </c>
-      <c r="S19" s="33">
-        <v>0</v>
-      </c>
-      <c r="T19" s="33">
+      <c r="S19" s="30">
+        <v>0</v>
+      </c>
+      <c r="T19" s="30">
         <v>27</v>
       </c>
-      <c r="U19" s="33">
-        <v>1</v>
-      </c>
-      <c r="V19" s="33">
-        <v>1</v>
-      </c>
-      <c r="W19" s="33">
-        <v>0</v>
-      </c>
-      <c r="X19" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB19" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="33">
+      <c r="U19" s="30">
+        <v>1</v>
+      </c>
+      <c r="V19" s="30">
+        <v>1</v>
+      </c>
+      <c r="W19" s="30">
+        <v>0</v>
+      </c>
+      <c r="X19" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="30">
+        <v>30</v>
+      </c>
+      <c r="AB19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="30">
         <v>2</v>
       </c>
-      <c r="AE19" s="33">
+      <c r="AE19" s="30">
         <v>119302</v>
       </c>
-      <c r="AF19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="34">
+      <c r="AF19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="L20" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
@@ -2858,7 +2921,7 @@
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="L21" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W21" s="18"/>
       <c r="X21" s="18"/>
